--- a/files/Database.xlsx
+++ b/files/Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>INVESTORS' DATABASE</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>1,920,000</t>
+  </si>
+  <si>
+    <t>JI-16</t>
+  </si>
+  <si>
+    <t>MRS. OLOLADE REDANI</t>
+  </si>
+  <si>
+    <t>06:00pm, 03rd of June, 2020</t>
+  </si>
+  <si>
+    <t>04th of July, 2020</t>
   </si>
 </sst>
 </file>
@@ -722,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -1117,6 +1129,29 @@
       </c>
       <c r="G24" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/files/Database.xlsx
+++ b/files/Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>INVESTORS' DATABASE</t>
   </si>
@@ -42,18 +42,33 @@
     <t>PAY DATE</t>
   </si>
   <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
     <t>JI-1</t>
   </si>
   <si>
     <t>MR. OLUREMI DANIEL YINKA</t>
   </si>
   <si>
+    <t>50,000</t>
+  </si>
+  <si>
     <t>12.32pm, 12th of February, 2020</t>
   </si>
   <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>60,000</t>
+  </si>
+  <si>
     <t>12th of March, 2020</t>
   </si>
   <si>
+    <t>+2347086643074</t>
+  </si>
+  <si>
     <t>JI-2</t>
   </si>
   <si>
@@ -268,6 +283,27 @@
   </si>
   <si>
     <t>04th of July, 2020</t>
+  </si>
+  <si>
+    <t>JI-17</t>
+  </si>
+  <si>
+    <t>MR. OLOLANI BADMUS</t>
+  </si>
+  <si>
+    <t>05:46pm, 06th of June, 2020</t>
+  </si>
+  <si>
+    <t>64,000</t>
+  </si>
+  <si>
+    <t>384,000</t>
+  </si>
+  <si>
+    <t>06th of July, 2020</t>
+  </si>
+  <si>
+    <t>+234506754543</t>
   </si>
 </sst>
 </file>
@@ -363,12 +399,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -389,6 +422,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -734,424 +771,502 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="10.42578125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="33.7109375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="22.5703125"/>
-    <col customWidth="1" max="4" min="4" style="8" width="30.5703125"/>
-    <col customWidth="1" max="5" min="5" style="8" width="15.42578125"/>
-    <col customWidth="1" max="6" min="6" style="8" width="16.85546875"/>
-    <col customWidth="1" max="7" min="7" style="8" width="24.28515625"/>
+    <col customWidth="1" max="1" min="1" style="7" width="10.42578125"/>
+    <col customWidth="1" max="2" min="2" style="7" width="33.7109375"/>
+    <col customWidth="1" max="3" min="3" style="7" width="22.5703125"/>
+    <col customWidth="1" max="4" min="4" style="7" width="30.5703125"/>
+    <col customWidth="1" max="5" min="5" style="7" width="15.42578125"/>
+    <col customWidth="1" max="6" min="6" style="7" width="16.85546875"/>
+    <col customWidth="1" max="7" min="7" style="7" width="24.28515625"/>
+    <col customWidth="1" max="8" min="8" width="15.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7"/>
-    <row r="2" spans="1:7"/>
-    <row r="3" spans="1:7">
-      <c r="C3" s="7" t="s">
+    <row r="1" spans="1:8"/>
+    <row r="2" spans="1:8"/>
+    <row r="3" spans="1:8">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7"/>
-    <row r="5" spans="1:7"/>
-    <row r="6" spans="1:7"/>
-    <row r="7" spans="1:7"/>
-    <row customHeight="1" ht="15.75" r="8" spans="1:7" thickBot="1"/>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+    <row r="4" spans="1:8"/>
+    <row r="5" spans="1:8"/>
+    <row r="6" spans="1:8"/>
+    <row r="7" spans="1:8"/>
+    <row customHeight="1" ht="15.75" r="8" spans="1:8" thickBot="1"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>50000</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>60000</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
       <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
